--- a/src/main/resources/api_test_case_01.xlsx
+++ b/src/main/resources/api_test_case_01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="1500" windowWidth="22860" windowHeight="10960" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="1500" windowWidth="22860" windowHeight="10960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>register</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>{"status":"1","code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>{"mobilephone":"13517315669","pwd":""}</t>
@@ -721,16 +718,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -927,7 +924,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,13 +939,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>34</v>
@@ -957,7 +954,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -968,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>36</v>
@@ -985,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>36</v>
@@ -1002,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>39</v>
@@ -1019,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>41</v>
@@ -1036,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>43</v>
@@ -1053,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>45</v>
@@ -1070,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>48</v>
@@ -1080,57 +1077,57 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>50</v>
+      <c r="A9" s="5">
+        <v>10086</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1138,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
